--- a/data/georgia_census/imereti/terjola/average_wages.xlsx
+++ b/data/georgia_census/imereti/terjola/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4DC19B-6D3A-4FD8-854A-588A7BB8BCC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBEE172D-A7FB-4E18-ADEE-A7EB7D84819E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2D6A703-F4ED-49AE-A133-83784B3C7145}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B92CD43-72C5-4388-967B-095130ADC805}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA963447-46C6-4FC3-B2E3-B2D005FAC450}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97111E14-7DF2-40BF-86C2-FE79CEB15931}"/>
 </file>